--- a/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/SpringStartIndex.xlsx
+++ b/Code/Matlab/Analysis/DampedLeg_Krnacik/Haonan/3DPrinted_Torsion_Spring/torqueTest/SpringStartIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\Code\Matlab\Analysis\DampedLeg_Krnacik\Haonan\3DPrinted_Torsion_Spring\torqueTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB69190-00F1-4E0D-A7E8-C41E3723B095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD494D-DB91-4EE9-BDBD-063B25BB4942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20595" yWindow="1425" windowWidth="8040" windowHeight="10860" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2L2LT4ST_37T" sheetId="1" r:id="rId1"/>
@@ -226,19 +226,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +541,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -563,7 +561,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -581,7 +579,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -599,7 +597,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +615,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -637,7 +635,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -655,7 +653,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -673,7 +671,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -691,13 +689,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -717,7 +715,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -735,7 +733,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -753,7 +751,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -771,7 +769,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -791,7 +789,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -809,7 +807,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -827,7 +825,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -858,155 +856,175 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2E0E-35DA-4038-9BB6-CC2087DB9393}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="C2" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="C3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="C4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="C6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="C7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="C8" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1021,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718AB398-C4BC-4BAB-90A3-A101022D1E0D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,88 +1060,152 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1136,15 +1218,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4543FD3E-E4C7-451F-BEAF-52CCC6A35B84}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1158,125 +1240,153 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="C2" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="C3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="C4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="C6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="C7" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="C8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1289,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5040558-2FE8-41D3-A7D6-FC9EBEBF17ED}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,94 +1422,152 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1415,7 +1583,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,93 +1598,157 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1552,7 +1784,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1572,7 +1804,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1822,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1608,7 +1840,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1858,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -1646,7 +1878,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1896,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1914,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1700,13 +1932,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -1726,7 +1958,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1976,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1762,7 +1994,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +2012,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -1800,7 +2032,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +2050,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +2068,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +2121,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1909,7 +2141,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +2159,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +2177,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +2195,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -1983,7 +2215,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2233,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2251,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2037,13 +2269,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -2063,7 +2295,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2313,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -2099,7 +2331,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2349,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -2137,7 +2369,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2387,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2405,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2227,242 +2459,242 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>0.13</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>0.24</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>0.04</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>0.23</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>0.12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>0.15</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>0.11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" s="3">
         <v>0.2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>0.18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>0.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>0.09</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>0.21</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>0.2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>0.03</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>0.22</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2500,7 +2732,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -2520,7 +2752,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2770,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2788,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2806,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -2594,7 +2826,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2612,7 +2844,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2862,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2648,13 +2880,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -2674,7 +2906,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -2692,7 +2924,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2942,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -2728,7 +2960,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -2748,7 +2980,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2998,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -2784,7 +3016,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2837,248 +3069,242 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>0.27</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>0.23</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>0.13</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>0.22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>0.1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>0.44</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>0.16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>0.32</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>0.1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>0.09</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>0.13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>0.09</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>0.22</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>0.13</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>0.09</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>0.19</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>0.15</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>0.19</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>0.19</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>0.08</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>0.17</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3093,7 +3319,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A79EB07-539E-4876-8537-5E9B0C840C73}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3101,182 +3327,179 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F1" s="7"/>
-    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3291,7 +3514,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB0CBC-4DE9-43A1-8AA7-F6D5232C5C23}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
@@ -3314,7 +3537,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -3334,11 +3557,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>0.12</v>
       </c>
       <c r="D3" s="2">
@@ -3352,11 +3575,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>0.2</v>
       </c>
       <c r="D4" s="2">
@@ -3370,11 +3593,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>0.1</v>
       </c>
       <c r="D5" s="2">
@@ -3388,13 +3611,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="2">
@@ -3408,11 +3631,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>0.04</v>
       </c>
       <c r="D7" s="2">
@@ -3426,11 +3649,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>0.06</v>
       </c>
       <c r="D8" s="2">
@@ -3444,11 +3667,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="2">
@@ -3460,24 +3683,6 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3490,9 +3695,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5E4BA8-7C00-4FCE-9573-FB469925808A}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -3513,170 +3718,152 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>0.1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>0.12</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>0.1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>0.12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>0.1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>0.04</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>0.04</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>0.17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>0.03</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>0.11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>0.06</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>0.09</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>0.02</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>0.1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>0.13</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>0.12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
